--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>636.0855713333334</v>
+        <v>1194.705281333333</v>
       </c>
       <c r="H2">
-        <v>1908.256714</v>
+        <v>3584.115844</v>
       </c>
       <c r="I2">
-        <v>0.20580936912678</v>
+        <v>0.362469594586466</v>
       </c>
       <c r="J2">
-        <v>0.20580936912678</v>
+        <v>0.362469594586466</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>152077.8396948684</v>
+        <v>29361.73886077386</v>
       </c>
       <c r="R2">
-        <v>1368700.557253815</v>
+        <v>264255.6497469647</v>
       </c>
       <c r="S2">
-        <v>0.08411378261722652</v>
+        <v>0.02738010880049776</v>
       </c>
       <c r="T2">
-        <v>0.08411378261722652</v>
+        <v>0.02738010880049776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>636.0855713333334</v>
+        <v>1194.705281333333</v>
       </c>
       <c r="H3">
-        <v>1908.256714</v>
+        <v>3584.115844</v>
       </c>
       <c r="I3">
-        <v>0.20580936912678</v>
+        <v>0.362469594586466</v>
       </c>
       <c r="J3">
-        <v>0.20580936912678</v>
+        <v>0.362469594586466</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>74454.62374121374</v>
+        <v>139841.7700575388</v>
       </c>
       <c r="R3">
-        <v>670091.6136709236</v>
+        <v>1258575.93051785</v>
       </c>
       <c r="S3">
-        <v>0.04118062203396206</v>
+        <v>0.1304038189694835</v>
       </c>
       <c r="T3">
-        <v>0.04118062203396206</v>
+        <v>0.1304038189694835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>636.0855713333334</v>
+        <v>1194.705281333333</v>
       </c>
       <c r="H4">
-        <v>1908.256714</v>
+        <v>3584.115844</v>
       </c>
       <c r="I4">
-        <v>0.20580936912678</v>
+        <v>0.362469594586466</v>
       </c>
       <c r="J4">
-        <v>0.20580936912678</v>
+        <v>0.362469594586466</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>36699.50916035259</v>
+        <v>66530.56810286337</v>
       </c>
       <c r="R4">
-        <v>330295.5824431733</v>
+        <v>598775.1129257705</v>
       </c>
       <c r="S4">
-        <v>0.02029838497092338</v>
+        <v>0.0620404057761351</v>
       </c>
       <c r="T4">
-        <v>0.02029838497092338</v>
+        <v>0.0620404057761351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>636.0855713333334</v>
+        <v>1194.705281333333</v>
       </c>
       <c r="H5">
-        <v>1908.256714</v>
+        <v>3584.115844</v>
       </c>
       <c r="I5">
-        <v>0.20580936912678</v>
+        <v>0.362469594586466</v>
       </c>
       <c r="J5">
-        <v>0.20580936912678</v>
+        <v>0.362469594586466</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>108871.6621692949</v>
+        <v>152969.1841223628</v>
       </c>
       <c r="R5">
-        <v>979844.9595236537</v>
+        <v>1376722.657101265</v>
       </c>
       <c r="S5">
-        <v>0.06021657950466798</v>
+        <v>0.1426452610403497</v>
       </c>
       <c r="T5">
-        <v>0.06021657950466798</v>
+        <v>0.1426452610403497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3113.690125</v>
       </c>
       <c r="I6">
-        <v>0.3358178150670637</v>
+        <v>0.3148943969447861</v>
       </c>
       <c r="J6">
-        <v>0.3358178150670637</v>
+        <v>0.314894396944786</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>248144.4263841561</v>
+        <v>25507.92449877642</v>
       </c>
       <c r="R6">
-        <v>2233299.837457405</v>
+        <v>229571.3204889878</v>
       </c>
       <c r="S6">
-        <v>0.1372479144918941</v>
+        <v>0.02378638919728385</v>
       </c>
       <c r="T6">
-        <v>0.1372479144918941</v>
+        <v>0.02378638919728384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3113.690125</v>
       </c>
       <c r="I7">
-        <v>0.3358178150670637</v>
+        <v>0.3148943969447861</v>
       </c>
       <c r="J7">
-        <v>0.3358178150670637</v>
+        <v>0.314894396944786</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
         <v>121487.1274932707</v>
@@ -883,10 +883,10 @@
         <v>1093384.147439436</v>
       </c>
       <c r="S7">
-        <v>0.06719415434400774</v>
+        <v>0.1132879351729929</v>
       </c>
       <c r="T7">
-        <v>0.06719415434400776</v>
+        <v>0.1132879351729928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3113.690125</v>
       </c>
       <c r="I8">
-        <v>0.3358178150670637</v>
+        <v>0.3148943969447861</v>
       </c>
       <c r="J8">
-        <v>0.3358178150670637</v>
+        <v>0.314894396944786</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>59882.35148163451</v>
+        <v>57798.23586319486</v>
       </c>
       <c r="R8">
-        <v>538941.1633347105</v>
+        <v>520184.1227687537</v>
       </c>
       <c r="S8">
-        <v>0.03312074333276133</v>
+        <v>0.05389742051433114</v>
       </c>
       <c r="T8">
-        <v>0.03312074333276133</v>
+        <v>0.05389742051433113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3113.690125</v>
       </c>
       <c r="I9">
-        <v>0.3358178150670637</v>
+        <v>0.3148943969447861</v>
       </c>
       <c r="J9">
-        <v>0.3358178150670637</v>
+        <v>0.314894396944786</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>177645.1862591846</v>
+        <v>132891.5299510915</v>
       </c>
       <c r="R9">
-        <v>1598806.676332661</v>
+        <v>1196023.769559824</v>
       </c>
       <c r="S9">
-        <v>0.09825500289840042</v>
+        <v>0.1239226520601782</v>
       </c>
       <c r="T9">
-        <v>0.09825500289840043</v>
+        <v>0.1239226520601782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>660.118164</v>
+        <v>560.3422443333334</v>
       </c>
       <c r="H10">
-        <v>1980.354492</v>
+        <v>1681.026733</v>
       </c>
       <c r="I10">
-        <v>0.213585261173568</v>
+        <v>0.170005966581565</v>
       </c>
       <c r="J10">
-        <v>0.2135852611735681</v>
+        <v>0.170005966581565</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>157823.6464537802</v>
+        <v>13771.28142633936</v>
       </c>
       <c r="R10">
-        <v>1420412.818084022</v>
+        <v>123941.5328370543</v>
       </c>
       <c r="S10">
-        <v>0.08729177055846377</v>
+        <v>0.01284185468590153</v>
       </c>
       <c r="T10">
-        <v>0.08729177055846378</v>
+        <v>0.01284185468590152</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>660.118164</v>
+        <v>560.3422443333334</v>
       </c>
       <c r="H11">
-        <v>1980.354492</v>
+        <v>1681.026733</v>
       </c>
       <c r="I11">
-        <v>0.213585261173568</v>
+        <v>0.170005966581565</v>
       </c>
       <c r="J11">
-        <v>0.2135852611735681</v>
+        <v>0.170005966581565</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>77267.66922622889</v>
+        <v>65588.77114708623</v>
       </c>
       <c r="R11">
-        <v>695409.0230360599</v>
+        <v>590298.9403237761</v>
       </c>
       <c r="S11">
-        <v>0.04273650878836154</v>
+        <v>0.06116217089912632</v>
       </c>
       <c r="T11">
-        <v>0.04273650878836155</v>
+        <v>0.06116217089912632</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>660.118164</v>
+        <v>560.3422443333334</v>
       </c>
       <c r="H12">
-        <v>1980.354492</v>
+        <v>1681.026733</v>
       </c>
       <c r="I12">
-        <v>0.213585261173568</v>
+        <v>0.170005966581565</v>
       </c>
       <c r="J12">
-        <v>0.2135852611735681</v>
+        <v>0.170005966581565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>38086.09045454635</v>
+        <v>31204.25466431728</v>
       </c>
       <c r="R12">
-        <v>342774.8140909172</v>
+        <v>280838.2919788555</v>
       </c>
       <c r="S12">
-        <v>0.02106529879475818</v>
+        <v>0.02909827281683442</v>
       </c>
       <c r="T12">
-        <v>0.02106529879475818</v>
+        <v>0.02909827281683442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>660.118164</v>
+        <v>560.3422443333334</v>
       </c>
       <c r="H13">
-        <v>1980.354492</v>
+        <v>1681.026733</v>
       </c>
       <c r="I13">
-        <v>0.213585261173568</v>
+        <v>0.170005966581565</v>
       </c>
       <c r="J13">
-        <v>0.2135852611735681</v>
+        <v>0.170005966581565</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>112985.0526119881</v>
+        <v>71745.80817898668</v>
       </c>
       <c r="R13">
-        <v>1016865.473507893</v>
+        <v>645712.2736108801</v>
       </c>
       <c r="S13">
-        <v>0.06249168303198453</v>
+        <v>0.06690366817970274</v>
       </c>
       <c r="T13">
-        <v>0.06249168303198453</v>
+        <v>0.06690366817970274</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>756.5536603333334</v>
+        <v>503.070933</v>
       </c>
       <c r="H14">
-        <v>2269.660981</v>
+        <v>1509.212799</v>
       </c>
       <c r="I14">
-        <v>0.2447875546325883</v>
+        <v>0.1526300418871828</v>
       </c>
       <c r="J14">
-        <v>0.2447875546325883</v>
+        <v>0.1526300418871828</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N14">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q14">
-        <v>180879.8241336703</v>
+        <v>12363.74995070488</v>
       </c>
       <c r="R14">
-        <v>1627918.417203033</v>
+        <v>111273.7495563439</v>
       </c>
       <c r="S14">
-        <v>0.1000440710990393</v>
+        <v>0.01152931781178325</v>
       </c>
       <c r="T14">
-        <v>0.1000440710990393</v>
+        <v>0.01152931781178325</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>756.5536603333334</v>
+        <v>503.070933</v>
       </c>
       <c r="H15">
-        <v>2269.660981</v>
+        <v>1509.212799</v>
       </c>
       <c r="I15">
-        <v>0.2447875546325883</v>
+        <v>0.1526300418871828</v>
       </c>
       <c r="J15">
-        <v>0.2447875546325883</v>
+        <v>0.1526300418871828</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q15">
-        <v>88555.56651298073</v>
+        <v>58885.0914400446</v>
       </c>
       <c r="R15">
-        <v>797000.0986168266</v>
+        <v>529965.8229604014</v>
       </c>
       <c r="S15">
-        <v>0.0489798098537137</v>
+        <v>0.05491092397492929</v>
       </c>
       <c r="T15">
-        <v>0.0489798098537137</v>
+        <v>0.05491092397492929</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>756.5536603333334</v>
+        <v>503.070933</v>
       </c>
       <c r="H16">
-        <v>2269.660981</v>
+        <v>1509.212799</v>
       </c>
       <c r="I16">
-        <v>0.2447875546325883</v>
+        <v>0.1526300418871828</v>
       </c>
       <c r="J16">
-        <v>0.2447875546325883</v>
+        <v>0.1526300418871828</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N16">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q16">
-        <v>43650.02012150884</v>
+        <v>28014.93848857374</v>
       </c>
       <c r="R16">
-        <v>392850.1810935795</v>
+        <v>252134.4463971637</v>
       </c>
       <c r="S16">
-        <v>0.024142691079153</v>
+        <v>0.02612420427460286</v>
       </c>
       <c r="T16">
-        <v>0.024142691079153</v>
+        <v>0.02612420427460286</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>756.5536603333334</v>
+        <v>503.070933</v>
       </c>
       <c r="H17">
-        <v>2269.660981</v>
+        <v>1509.212799</v>
       </c>
       <c r="I17">
-        <v>0.2447875546325883</v>
+        <v>0.1526300418871828</v>
       </c>
       <c r="J17">
-        <v>0.2447875546325883</v>
+        <v>0.1526300418871828</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N17">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q17">
-        <v>129490.8393348707</v>
+        <v>64412.83166573269</v>
       </c>
       <c r="R17">
-        <v>1165417.554013836</v>
+        <v>579715.4849915942</v>
       </c>
       <c r="S17">
-        <v>0.07162098260068231</v>
+        <v>0.06006559582586745</v>
       </c>
       <c r="T17">
-        <v>0.07162098260068231</v>
+        <v>0.06006559582586745</v>
       </c>
     </row>
   </sheetData>
